--- a/PFOA inhalation Rat/Data/PFOA_female_tissues_Lupton_2020.xlsx
+++ b/PFOA inhalation Rat/Data/PFOA_female_tissues_Lupton_2020.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8435C2D-0DDF-469D-A418-9B48DB1EF2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D8F6CBF-02F0-4778-B7DE-C6CB6A29A917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -109,20 +109,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -439,10 +434,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -453,118 +448,175 @@
     <col min="4" max="4" width="15.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>12</v>
-      </c>
-      <c r="C2" s="4">
+      <c r="B2" s="1">
+        <v>324</v>
+      </c>
+      <c r="C2" s="1">
         <v>0.02</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>12</v>
-      </c>
-      <c r="C3" s="4">
+      <c r="B3" s="1">
+        <v>324</v>
+      </c>
+      <c r="C3" s="1">
         <v>0.03</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
-        <v>12</v>
-      </c>
-      <c r="C4" s="4">
+      <c r="B4" s="1">
+        <v>324</v>
+      </c>
+      <c r="C4" s="1">
         <v>0.01</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>12</v>
-      </c>
-      <c r="C5" s="4">
+      <c r="B5" s="1">
+        <v>324</v>
+      </c>
+      <c r="C5" s="1">
         <v>0.02</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="1">
         <v>4.7E-2</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="4"/>
-      <c r="E6" s="5"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="3"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="3"/>
-      <c r="E9" s="5"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="3"/>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
